--- a/biology/Médecine/Artère_supéro-médiale_du_genou/Artère_supéro-médiale_du_genou.xlsx
+++ b/biology/Médecine/Artère_supéro-médiale_du_genou/Artère_supéro-médiale_du_genou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_sup%C3%A9ro-m%C3%A9diale_du_genou</t>
+          <t>Artère_supéro-médiale_du_genou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère supéro-médiale du genou (ou artère articulaire supérieure interne du genou) est une artère du membre inférieur située au niveau du genou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_sup%C3%A9ro-m%C3%A9diale_du_genou</t>
+          <t>Artère_supéro-médiale_du_genou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère supéro-médiale du genou nait de la face antérieure de l'artère poplitée au niveau du bord supérieur du condyle médial du tibia.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_sup%C3%A9ro-m%C3%A9diale_du_genou</t>
+          <t>Artère_supéro-médiale_du_genou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère supéro-médiale du genou s'étend profondément jusqu'aux muscles semi-membraneux et semi-tendineux, jusqu'au tendon du muscle troisième adducteur et au-dessus du chef médial du muscle gastrocnémien.
 Elle se divise en deux branches, une profonde et une superficielle.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_sup%C3%A9ro-m%C3%A9diale_du_genou</t>
+          <t>Artère_supéro-médiale_du_genou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Anastomoses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La branche profonde s'anastomose avec l'artère descendante du genou et avec l'artère inféro-médiale du genou.
 La branche superficielle s'anastomose avec l'artère supéro-latérale du genou.
